--- a/LRP1 Upstream Model/validation/LRP1_validation_edit.xlsx
+++ b/LRP1 Upstream Model/validation/LRP1_validation_edit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SaucermanLab/Lavie/LRP1/Code/LRP1 Upstream Model/validation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/saucermanlab/Lavie/LRP1/LRP1 Project Code/LRP1-Project/LRP1 Upstream Model/validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DC1670-663C-5B4F-B86A-D2FC7B99E47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78843E0E-8989-4E4B-94FB-6193B0FC5F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5080" yWindow="6360" windowWidth="24960" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -672,7 +672,7 @@
     <t>in-int</t>
   </si>
   <si>
-    <t>w[LRP1ag] = 1</t>
+    <t>w[LRP1ag] = 1; w[ROS] = 0.4</t>
   </si>
 </sst>
 </file>
@@ -1236,12 +1236,12 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
@@ -1544,9 +1544,9 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1" display="https://doi.org/10.1016/j.cardiores.2007.03.003" xr:uid="{E3970506-78C9-4843-AE3D-7059C992FE83}"/>
-    <hyperlink ref="I4" r:id="rId2" display="https://doi.org/10.1016/j.cardiores.2007.03.003" xr:uid="{DB438F90-6DFD-45E0-AE9B-D61735AD618E}"/>
-    <hyperlink ref="I2" r:id="rId3" display="https://doi.org/10.1016/j.cardiores.2007.03.003" xr:uid="{B69E77B5-EE08-4C7E-8580-89154E913DB5}"/>
+    <hyperlink ref="I2" r:id="rId1" display="https://doi.org/10.1016/j.cardiores.2007.03.003" xr:uid="{982532F0-3EA8-4441-9E2B-C02F81F2EEB1}"/>
+    <hyperlink ref="I4" r:id="rId2" display="https://doi.org/10.1016/j.cardiores.2007.03.003" xr:uid="{F399544A-A144-194E-A4BA-755995900912}"/>
+    <hyperlink ref="I3" r:id="rId3" display="https://doi.org/10.1016/j.cardiores.2007.03.003" xr:uid="{C6ED50C3-5CFC-B245-9678-4D5651D0C544}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1561,7 +1561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE45"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="86" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="86" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
